--- a/Question_4_analysis.xlsx
+++ b/Question_4_analysis.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shantanu Shinde\Desktop\Shantanu\Rutgers University\Fall 2021\Introduction to Artificial Intelligence\Assignment 1\A_Star\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shantanu Shinde\Desktop\Shantanu\Rutgers University\Fall 2021\Introduction to Artificial Intelligence\Assignment 1\Repeated_A_Star\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{AA43F013-B52E-440F-8D3E-6998301323BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285B77D6-8ED2-47DA-8C12-00E89F2DD2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Question_4_analysis" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
   <si>
     <t>p</t>
   </si>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1382,7 +1382,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Question_4_analysis!$E$1</c:f>
+              <c:f>Question_4_analysis!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1420,7 +1420,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Question_4_analysis!$D$2:$D$3</c:f>
+              <c:f>Question_4_analysis!$E$2:$E$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1435,7 +1435,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Question_4_analysis!$E$2:$E$3</c:f>
+              <c:f>Question_4_analysis!$F$2:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1460,7 +1460,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Question_4_analysis!$G$1</c:f>
+              <c:f>Question_4_analysis!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1498,7 +1498,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Question_4_analysis!$F$2:$F$3</c:f>
+              <c:f>Question_4_analysis!$G$2:$G$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1513,7 +1513,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Question_4_analysis!$G$2:$G$3</c:f>
+              <c:f>Question_4_analysis!$H$2:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1729,7 +1729,1077 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Question_4_analysis!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Solvability</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Question_4_analysis!$B$2:$B$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Question_4_analysis!$D$2:$D$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-39EE-4F7D-93E5-73776AAFE177}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="507370040"/>
+        <c:axId val="507365120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="507370040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN" sz="1200"/>
+                  <a:t>Density (p)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="507365120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+        <c:minorUnit val="1.0000000000000002E-2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="507365120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN" sz="1200"/>
+                  <a:t>Solvability</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="507370040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2285,17 +3355,533 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -2318,6 +3904,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4F2C742-2B99-4ED5-B456-4D0A4AAF4F1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2622,30 +4244,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC43" sqref="AC43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2656,19 +4281,23 @@
         <v>100</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <f>C2/100</f>
+        <v>1</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>50</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.3</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2679,19 +4308,23 @@
         <v>100</v>
       </c>
       <c r="D3">
+        <f t="shared" ref="D3:D66" si="0">C3/100</f>
         <v>1</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>50</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.3</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2701,8 +4334,12 @@
       <c r="C4">
         <v>99</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -2712,8 +4349,12 @@
       <c r="C5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -2723,8 +4364,12 @@
       <c r="C6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -2734,8 +4379,12 @@
       <c r="C7">
         <v>99</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -2745,8 +4394,12 @@
       <c r="C8">
         <v>99</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -2756,8 +4409,12 @@
       <c r="C9">
         <v>97</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
@@ -2767,8 +4424,12 @@
       <c r="C10">
         <v>96</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
@@ -2778,8 +4439,12 @@
       <c r="C11">
         <v>96</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -2789,8 +4454,12 @@
       <c r="C12">
         <v>94</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
@@ -2800,8 +4469,12 @@
       <c r="C13">
         <v>97</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0</v>
       </c>
@@ -2811,8 +4484,12 @@
       <c r="C14">
         <v>94</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0</v>
       </c>
@@ -2822,8 +4499,12 @@
       <c r="C15">
         <v>89</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0</v>
       </c>
@@ -2833,8 +4514,12 @@
       <c r="C16">
         <v>95</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0</v>
       </c>
@@ -2844,8 +4529,12 @@
       <c r="C17">
         <v>91</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0</v>
       </c>
@@ -2855,8 +4544,12 @@
       <c r="C18">
         <v>79</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0</v>
       </c>
@@ -2866,8 +4559,12 @@
       <c r="C19">
         <v>83</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0</v>
       </c>
@@ -2877,8 +4574,12 @@
       <c r="C20">
         <v>85</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0</v>
       </c>
@@ -2888,8 +4589,12 @@
       <c r="C21">
         <v>88</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0</v>
       </c>
@@ -2899,8 +4604,12 @@
       <c r="C22">
         <v>81</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0</v>
       </c>
@@ -2910,8 +4619,12 @@
       <c r="C23">
         <v>74</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0</v>
       </c>
@@ -2921,8 +4634,12 @@
       <c r="C24">
         <v>74</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0</v>
       </c>
@@ -2932,8 +4649,12 @@
       <c r="C25">
         <v>69</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0</v>
       </c>
@@ -2943,8 +4664,12 @@
       <c r="C26">
         <v>68</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0</v>
       </c>
@@ -2954,8 +4679,12 @@
       <c r="C27">
         <v>70</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0</v>
       </c>
@@ -2965,8 +4694,12 @@
       <c r="C28">
         <v>77</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0</v>
       </c>
@@ -2976,8 +4709,12 @@
       <c r="C29">
         <v>62</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0</v>
       </c>
@@ -2987,8 +4724,12 @@
       <c r="C30">
         <v>54</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0</v>
       </c>
@@ -2998,8 +4739,12 @@
       <c r="C31">
         <v>53</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0</v>
       </c>
@@ -3009,8 +4754,12 @@
       <c r="C32">
         <v>45</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0</v>
       </c>
@@ -3020,8 +4769,12 @@
       <c r="C33">
         <v>54</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0</v>
       </c>
@@ -3031,8 +4784,12 @@
       <c r="C34">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0</v>
       </c>
@@ -3042,8 +4799,12 @@
       <c r="C35">
         <v>29</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0</v>
       </c>
@@ -3053,8 +4814,12 @@
       <c r="C36">
         <v>29</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0</v>
       </c>
@@ -3064,8 +4829,12 @@
       <c r="C37">
         <v>24</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0</v>
       </c>
@@ -3075,8 +4844,12 @@
       <c r="C38">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0</v>
       </c>
@@ -3086,8 +4859,12 @@
       <c r="C39">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0</v>
       </c>
@@ -3097,8 +4874,12 @@
       <c r="C40">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0</v>
       </c>
@@ -3108,8 +4889,12 @@
       <c r="C41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0</v>
       </c>
@@ -3119,8 +4904,12 @@
       <c r="C42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0</v>
       </c>
@@ -3130,8 +4919,12 @@
       <c r="C43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>0</v>
       </c>
@@ -3141,8 +4934,12 @@
       <c r="C44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>0</v>
       </c>
@@ -3152,8 +4949,12 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>0</v>
       </c>
@@ -3163,8 +4964,12 @@
       <c r="C46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>0</v>
       </c>
@@ -3174,8 +4979,12 @@
       <c r="C47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>0</v>
       </c>
@@ -3185,8 +4994,12 @@
       <c r="C48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0</v>
       </c>
@@ -3196,8 +5009,12 @@
       <c r="C49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0</v>
       </c>
@@ -3207,8 +5024,12 @@
       <c r="C50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>0</v>
       </c>
@@ -3218,8 +5039,12 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0</v>
       </c>
@@ -3229,8 +5054,12 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>0</v>
       </c>
@@ -3240,8 +5069,12 @@
       <c r="C53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0</v>
       </c>
@@ -3251,8 +5084,12 @@
       <c r="C54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0</v>
       </c>
@@ -3262,8 +5099,12 @@
       <c r="C55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0</v>
       </c>
@@ -3273,8 +5114,12 @@
       <c r="C56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>0</v>
       </c>
@@ -3284,8 +5129,12 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>0</v>
       </c>
@@ -3295,8 +5144,12 @@
       <c r="C58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>0</v>
       </c>
@@ -3306,8 +5159,12 @@
       <c r="C59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>0</v>
       </c>
@@ -3317,8 +5174,12 @@
       <c r="C60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>0</v>
       </c>
@@ -3328,8 +5189,12 @@
       <c r="C61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>0</v>
       </c>
@@ -3339,8 +5204,12 @@
       <c r="C62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>0</v>
       </c>
@@ -3350,8 +5219,12 @@
       <c r="C63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>0</v>
       </c>
@@ -3361,8 +5234,12 @@
       <c r="C64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0</v>
       </c>
@@ -3372,8 +5249,12 @@
       <c r="C65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>0</v>
       </c>
@@ -3383,8 +5264,12 @@
       <c r="C66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>0</v>
       </c>
@@ -3394,8 +5279,12 @@
       <c r="C67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D67">
+        <f t="shared" ref="D67:D100" si="1">C67/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>0</v>
       </c>
@@ -3405,8 +5294,12 @@
       <c r="C68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>0</v>
       </c>
@@ -3416,8 +5309,12 @@
       <c r="C69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>0</v>
       </c>
@@ -3427,8 +5324,12 @@
       <c r="C70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>0</v>
       </c>
@@ -3438,8 +5339,12 @@
       <c r="C71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>0</v>
       </c>
@@ -3449,8 +5354,12 @@
       <c r="C72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>0</v>
       </c>
@@ -3460,8 +5369,12 @@
       <c r="C73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>0</v>
       </c>
@@ -3471,8 +5384,12 @@
       <c r="C74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>0</v>
       </c>
@@ -3482,8 +5399,12 @@
       <c r="C75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>0</v>
       </c>
@@ -3493,8 +5414,12 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>0</v>
       </c>
@@ -3504,8 +5429,12 @@
       <c r="C77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D77">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>0</v>
       </c>
@@ -3515,8 +5444,12 @@
       <c r="C78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>0</v>
       </c>
@@ -3526,8 +5459,12 @@
       <c r="C79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>0</v>
       </c>
@@ -3537,8 +5474,12 @@
       <c r="C80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>0</v>
       </c>
@@ -3548,8 +5489,12 @@
       <c r="C81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>0</v>
       </c>
@@ -3559,8 +5504,12 @@
       <c r="C82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>0</v>
       </c>
@@ -3570,8 +5519,12 @@
       <c r="C83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D83">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>0</v>
       </c>
@@ -3581,8 +5534,12 @@
       <c r="C84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>0</v>
       </c>
@@ -3592,8 +5549,12 @@
       <c r="C85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>0</v>
       </c>
@@ -3603,8 +5564,12 @@
       <c r="C86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>0</v>
       </c>
@@ -3614,8 +5579,12 @@
       <c r="C87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D87">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>0</v>
       </c>
@@ -3625,8 +5594,12 @@
       <c r="C88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>0</v>
       </c>
@@ -3636,8 +5609,12 @@
       <c r="C89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D89">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>0</v>
       </c>
@@ -3647,8 +5624,12 @@
       <c r="C90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>0</v>
       </c>
@@ -3658,8 +5639,12 @@
       <c r="C91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D91">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>0</v>
       </c>
@@ -3669,8 +5654,12 @@
       <c r="C92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>0</v>
       </c>
@@ -3680,8 +5669,12 @@
       <c r="C93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D93">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>0</v>
       </c>
@@ -3691,8 +5684,12 @@
       <c r="C94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D94">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>0</v>
       </c>
@@ -3702,8 +5699,12 @@
       <c r="C95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D95">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>0</v>
       </c>
@@ -3713,8 +5714,12 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>0</v>
       </c>
@@ -3724,8 +5729,12 @@
       <c r="C97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D97">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>0</v>
       </c>
@@ -3735,8 +5744,12 @@
       <c r="C98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D98">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>0</v>
       </c>
@@ -3746,8 +5759,12 @@
       <c r="C99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D99">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>0</v>
       </c>
@@ -3755,6 +5772,10 @@
         <v>0.99</v>
       </c>
       <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
